--- a/pred_ohlcv/54_21/2019-10-31 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 LAMB ohlcv.xlsx
@@ -1562,7 +1562,7 @@
         <v>-2324742.199207677</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2325242.199207677</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-2187372.427207677</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-2384652.874132167</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-3023828.379432166</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-2941694.009232166</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2956863.847632166</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-2946256.539332166</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-3022852.067732166</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-2429884.284732167</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1744017.294659882</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1687497.136659882</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1798581.027259882</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1798581.027259882</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1798581.027259882</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1969091.718859882</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1969091.718859882</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-2006237.014959882</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1936432.642626893</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1936432.642626893</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1939788.460014418</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1988798.808514418</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1952127.942714418</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1862024.860214418</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1821424.860214418</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1801544.043896051</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-2635344.278496051</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-2717387.277696051</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-2874097.712296051</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-3127377.925396051</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-3127377.925396051</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-3113716.293396051</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-3143494.482296051</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-3143494.482296051</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-2751703.13539605</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-2736009.56869605</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1700052.057154054</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2361809.96150457</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1305325.165266444</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1622522.887366444</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1728799.396266444</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1742572.972266444</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1773453.003666444</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1710749.906966444</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1737358.141066444</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1818279.198766444</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1777563.313866444</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1777579.485766444</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1758225.634666444</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1711985.311666443</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1711985.311666443</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1711985.311666443</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1664210.620566444</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1599652.967566444</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1601622.763166444</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1603109.551266444</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1686633.034166444</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1727321.949166444</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1864518.212666444</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1835780.406666443</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1956663.083866443</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-2176250.072826682</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-2111723.457326682</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-2416005.941503065</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-2438110.654103065</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-2414788.408803065</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-2412131.776603065</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-2414631.776603065</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-2414631.776603065</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-2425372.868403065</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-2396607.832403066</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-2400137.832403066</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-2400137.832403066</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-2410670.457503065</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-2415687.347503065</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-2416083.048503065</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-2416073.048503065</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-2139114.229628381</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-2139114.229628381</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-2181407.609928381</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-2187547.625528381</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-3557328.054627146</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-3557328.054627146</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-3549703.348827146</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-3351921.148727146</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-3534722.039527146</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-3322048.847427146</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-3386569.844227146</v>
       </c>
       <c r="H557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-3094800.306127146</v>
       </c>
       <c r="H565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-3039206.833927146</v>
       </c>
       <c r="H566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-3039862.809927145</v>
       </c>
       <c r="H567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-3006800.245427146</v>
       </c>
       <c r="H568">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-2986048.691627146</v>
       </c>
       <c r="H569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-2986048.691627146</v>
       </c>
       <c r="H570">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-3095963.499127146</v>
       </c>
       <c r="H571">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-3028126.431227146</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-3030030.277327146</v>
       </c>
       <c r="H573">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-3030030.277327146</v>
       </c>
       <c r="H574">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-3030030.277327146</v>
       </c>
       <c r="H575">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-3048207.708227146</v>
       </c>
       <c r="H576">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-2973214.252227146</v>
       </c>
       <c r="H577">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-2973214.252227146</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-2973214.252227146</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-2973214.252227146</v>
       </c>
       <c r="H580">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-2973321.515527146</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-2973321.515527146</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-2973321.515527146</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-2959014.360027147</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-2957111.452727146</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-3038334.952427146</v>
       </c>
       <c r="H592">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-3038334.952427146</v>
       </c>
       <c r="H593">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-3033012.557727146</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-3077283.383027147</v>
       </c>
       <c r="H595">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-3077283.383027147</v>
       </c>
       <c r="H596">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-3002935.872127146</v>
       </c>
       <c r="H597">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-2979628.28592025</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-2980282.01342025</v>
       </c>
       <c r="H599">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-2979852.01342025</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-2919021.01342025</v>
       </c>
       <c r="H601">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-2633190.26192025</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-2643190.26192025</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-2500866.22902025</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-2750535.87922025</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-2814679.022420249</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-2871235.27532025</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-2808806.563220249</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-2822615.46572025</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-2731290.48212025</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-2603592.85832025</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-2617797.819305876</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-2617797.819305876</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-2620285.733105876</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-2619785.733105876</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-2590962.104305876</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-2576506.542684521</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-2664906.542684521</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-2686706.542684521</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-2686706.542684521</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-2723106.542684521</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-2723082.972984521</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-2902155.802980379</v>
       </c>
       <c r="H680">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-2902155.802980379</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-2902155.802980379</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-2902155.802980379</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-2902155.802980379</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-31 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 LAMB ohlcv.xlsx
@@ -1562,7 +1562,7 @@
         <v>-2324742.199207677</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2325242.199207677</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-2187372.427207677</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-2384652.874132167</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-3023828.379432166</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-2941694.009232166</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2956863.847632166</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-2946256.539332166</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-3022852.067732166</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-2429884.284732167</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1744017.294659882</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1687497.136659882</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1798581.027259882</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1798581.027259882</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1798581.027259882</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1969091.718859882</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1969091.718859882</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-2006237.014959882</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1936432.642626893</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1936432.642626893</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1939788.460014418</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1988798.808514418</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1952127.942714418</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1862024.860214418</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1821424.860214418</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1801544.043896051</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-2635344.278496051</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-2717387.277696051</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-2874097.712296051</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-3127377.925396051</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-3127377.925396051</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-3113716.293396051</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-3143494.482296051</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-3143494.482296051</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-2751703.13539605</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-2736009.56869605</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1700052.057154054</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2361809.96150457</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1400848.111966444</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1305325.165266444</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1622522.887366444</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1728799.396266444</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1742572.972266444</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1773453.003666444</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1777563.313866444</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1758225.634666444</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1711985.311666443</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1711985.311666443</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1664210.620566444</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1599652.967566444</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1601622.763166444</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1603109.551266444</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1686633.034166444</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1727321.949166444</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1864518.212666444</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1835780.406666443</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-2416005.941503065</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-2438110.654103065</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-2414788.408803065</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-2412131.776603065</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-2414631.776603065</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-2414631.776603065</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-2425372.868403065</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-2396607.832403066</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-2400137.832403066</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-2400137.832403066</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-2410670.457503065</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-2415687.347503065</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-2416083.048503065</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-2416073.048503065</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-2139114.229628381</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-2139114.229628381</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-2181407.609928381</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-2187547.625528381</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-3557328.054627146</v>
       </c>
       <c r="H547">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-3557328.054627146</v>
       </c>
       <c r="H548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-3549703.348827146</v>
       </c>
       <c r="H549">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-3549703.348827146</v>
       </c>
       <c r="H550">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-3468938.520727146</v>
       </c>
       <c r="H551">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-3351921.148727146</v>
       </c>
       <c r="H552">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-3534722.039527146</v>
       </c>
       <c r="H553">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-3322048.847427146</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-3094800.306127146</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-3039206.833927146</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-3039862.809927145</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-3006800.245427146</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-2986048.691627146</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-2986048.691627146</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-3095963.499127146</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-3028126.431227146</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-3030030.277327146</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-3030030.277327146</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-3030030.277327146</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-3048207.708227146</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-2973214.252227146</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-2973214.252227146</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-2973214.252227146</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-2973214.252227146</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-2973321.515527146</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-2973321.515527146</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-2973321.515527146</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-2959014.360027147</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-2957111.452727146</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-2896911.452727146</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-3022510.127627146</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-3038334.952427146</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-3038334.952427146</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-3038334.952427146</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-3033012.557727146</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-3077283.383027147</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-3077283.383027147</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-3002935.872127146</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-2979628.28592025</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-2980282.01342025</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-2979852.01342025</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-2919021.01342025</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-2919021.01342025</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-2918013.01342025</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-2907185.65242025</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-2907185.65242025</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-2798139.07762025</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-2633190.26192025</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-2643190.26192025</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-2500866.22902025</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-2750535.87922025</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-2814679.022420249</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-2871235.27532025</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-2822615.46572025</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-2731290.48212025</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-2603592.85832025</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-2617797.819305876</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-2617797.819305876</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-2620285.733105876</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-2619785.733105876</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-2590962.104305876</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-2576506.542684521</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-2664906.542684521</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-2686706.542684521</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-2686706.542684521</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-2723106.542684521</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-2723082.972984521</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
